--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Patient Sample</t>
+    <t>Patient sample used for HLA typing</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1663,17 +1663,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1684,23 +1684,23 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="35.7890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="96.05859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="96.0625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="51.5234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="51.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -249,10 +249,6 @@
     <t>A sample to be used for analysis.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Role[classCode=SPEC]</t>
   </si>
   <si>
@@ -263,113 +259,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Specimen.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Specimen.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Specimen.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Specimen.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Specimen.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Specimen.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>Specimen.meta.lastUpdated</t>
@@ -1913,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>72</v>
@@ -1927,7 +1923,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1938,28 +1934,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2009,13 +2005,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2035,7 +2031,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2046,25 +2042,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2115,19 +2111,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2141,7 +2137,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2152,7 +2148,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -2164,13 +2160,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2221,22 +2217,22 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2247,11 +2243,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2270,16 +2266,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2317,19 +2313,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2341,10 +2337,10 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2355,7 +2351,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2366,28 +2362,28 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2437,19 +2433,19 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -2463,7 +2459,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2474,28 +2470,28 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2545,19 +2541,19 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -2571,7 +2567,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2582,28 +2578,28 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2653,19 +2649,19 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2679,7 +2675,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2699,19 +2695,19 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2761,7 +2757,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2773,7 +2769,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2787,7 +2783,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2795,7 +2791,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>74</v>
@@ -2807,19 +2803,19 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2845,31 +2841,31 @@
         <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2881,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2895,41 +2891,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2955,14 +2951,14 @@
         <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2991,7 +2987,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -3005,7 +3001,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3016,7 +3012,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3028,13 +3024,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3085,22 +3081,22 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>72</v>
@@ -3111,11 +3107,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3134,16 +3130,16 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3181,19 +3177,19 @@
         <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3205,10 +3201,10 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -3219,7 +3215,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3227,34 +3223,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
@@ -3264,72 +3260,72 @@
         <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3340,28 +3336,28 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3411,33 +3407,33 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3445,32 +3441,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -3519,33 +3515,33 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3556,29 +3552,29 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3627,33 +3623,33 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3664,31 +3660,31 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3737,33 +3733,33 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3783,19 +3779,19 @@
         <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3821,31 +3817,31 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3857,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3871,7 +3867,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3882,28 +3878,28 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3953,19 +3949,19 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -3979,7 +3975,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3990,7 +3986,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -4002,16 +3998,16 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4037,43 +4033,43 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -4087,18 +4083,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4110,16 +4106,16 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4169,22 +4165,22 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -4195,11 +4191,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4218,16 +4214,16 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4277,7 +4273,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4292,7 +4288,7 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -4303,11 +4299,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4326,16 +4322,16 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4385,7 +4381,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4397,10 +4393,10 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4411,11 +4407,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4428,25 +4424,25 @@
         <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -4495,7 +4491,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4507,10 +4503,10 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4529,28 +4525,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4601,7 +4597,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4613,21 +4609,21 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4638,25 +4634,25 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4707,33 +4703,33 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4744,28 +4740,28 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4791,57 +4787,57 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4852,28 +4848,28 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4899,57 +4895,57 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4957,32 +4953,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -5031,25 +5027,25 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5057,7 +5053,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5068,25 +5064,25 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5137,33 +5133,33 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5186,16 +5182,16 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5245,7 +5241,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5257,10 +5253,10 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -5271,7 +5267,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5294,16 +5290,16 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5353,7 +5349,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5365,21 +5361,21 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5390,7 +5386,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5402,13 +5398,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5459,33 +5455,33 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5496,7 +5492,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -5508,13 +5504,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5565,22 +5561,22 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5591,11 +5587,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5614,16 +5610,16 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5673,7 +5669,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5685,10 +5681,10 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5699,11 +5695,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5716,25 +5712,25 @@
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>72</v>
@@ -5783,7 +5779,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5795,10 +5791,10 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>72</v>
@@ -5809,7 +5805,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5820,25 +5816,25 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5889,33 +5885,33 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5926,25 +5922,25 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5995,33 +5991,33 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6032,25 +6028,25 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6101,25 +6097,25 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6127,7 +6123,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6138,7 +6134,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6150,13 +6146,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6207,33 +6203,33 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6244,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6256,13 +6252,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6289,57 +6285,57 @@
         <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6350,7 +6346,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6362,16 +6358,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6397,57 +6393,57 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6458,31 +6454,31 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6507,57 +6503,57 @@
         <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6580,13 +6576,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6637,7 +6633,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6649,10 +6645,10 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6663,7 +6659,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6674,7 +6670,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6686,13 +6682,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6743,22 +6739,22 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6769,11 +6765,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6792,16 +6788,16 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6851,7 +6847,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6863,10 +6859,10 @@
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6877,11 +6873,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6894,25 +6890,25 @@
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -6961,7 +6957,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6973,10 +6969,10 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6987,7 +6983,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6998,7 +6994,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7010,13 +7006,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7067,22 +7063,22 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>72</v>
@@ -7093,7 +7089,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7104,7 +7100,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7116,13 +7112,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7149,14 +7145,14 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
       </c>
@@ -7173,22 +7169,22 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -7199,7 +7195,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7222,13 +7218,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7279,7 +7275,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7291,21 +7287,21 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7316,7 +7312,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -7328,13 +7324,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7385,22 +7381,22 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7411,7 +7407,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7434,13 +7430,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7491,7 +7487,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7503,10 +7499,10 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7517,7 +7513,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7528,7 +7524,7 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -7540,13 +7536,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7597,22 +7593,22 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7623,11 +7619,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7646,16 +7642,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7705,7 +7701,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7717,10 +7713,10 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>72</v>
@@ -7731,11 +7727,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7748,25 +7744,25 @@
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7815,7 +7811,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7827,10 +7823,10 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7841,7 +7837,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7861,16 +7857,16 @@
         <v>72</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7921,7 +7917,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7933,21 +7929,21 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7958,7 +7954,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -7970,13 +7966,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8027,22 +8023,22 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -8053,7 +8049,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8064,7 +8060,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -8076,13 +8072,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8109,57 +8105,57 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8170,7 +8166,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -8182,13 +8178,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8239,33 +8235,33 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8276,7 +8272,7 @@
         <v>73</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -8288,13 +8284,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8345,33 +8341,33 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8382,7 +8378,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -8394,13 +8390,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8427,57 +8423,57 @@
         <v>72</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8497,22 +8493,22 @@
         <v>72</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>72</v>
@@ -8537,14 +8533,14 @@
         <v>72</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8573,7 +8569,7 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
@@ -8582,12 +8578,12 @@
         <v>72</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8610,13 +8606,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8667,7 +8663,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8679,16 +8675,16 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msspecimen.xlsx
+++ b/docs/StructureDefinition-msspecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
